--- a/docs/【河洛話注音】歸去來辭．陶淵明.xlsx
+++ b/docs/【河洛話注音】歸去來辭．陶淵明.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/piau-im/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/piau-im/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE876AEE-F075-8E41-B595-E51F66147383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F56DEF-0E65-4B44-B444-7E2D9CCBAC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-82440" yWindow="1420" windowWidth="25400" windowHeight="18300" activeTab="2" xr2:uid="{6DBF3192-D764-1847-9AC3-0222A8EE5BB0}"/>
+    <workbookView xWindow="-82440" yWindow="1420" windowWidth="25400" windowHeight="18300" activeTab="5" xr2:uid="{6DBF3192-D764-1847-9AC3-0222A8EE5BB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="閩拼拼音" sheetId="25" r:id="rId1"/>
-    <sheet name="台羅拼音" sheetId="24" r:id="rId2"/>
-    <sheet name="白話字拼音" sheetId="23" r:id="rId3"/>
-    <sheet name="方音符號注音" sheetId="22" r:id="rId4"/>
-    <sheet name="十五音注音" sheetId="21" r:id="rId5"/>
-    <sheet name="漢字注音表" sheetId="20" r:id="rId6"/>
-    <sheet name="字庫表" sheetId="19" r:id="rId7"/>
-    <sheet name="缺字表" sheetId="18" r:id="rId8"/>
+    <sheet name="閩拼拼音" sheetId="36" r:id="rId1"/>
+    <sheet name="台羅拼音" sheetId="35" r:id="rId2"/>
+    <sheet name="白話字拼音" sheetId="34" r:id="rId3"/>
+    <sheet name="方音符號注音" sheetId="33" r:id="rId4"/>
+    <sheet name="十五音注音" sheetId="32" r:id="rId5"/>
+    <sheet name="漢字注音表" sheetId="31" r:id="rId6"/>
+    <sheet name="字庫表" sheetId="30" r:id="rId7"/>
+    <sheet name="缺字表" sheetId="29" r:id="rId8"/>
     <sheet name="工作表1" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="1622">
   <si>
     <t>歸去來兮！田園將蕪胡不歸？既自以心為形役，奚惆悵而獨悲？悟已往之不諫，知來者之可追；實迷途其未遠，覺今是而昨非。舟遙遙以輕揚，風飄飄而吹衣。問征夫以前路，恨晨光之熹微。乃瞻衡宇，載欣載奔。僮仆歡迎，稚子候門。三徑就荒，松菊猶存。攜幼入室，有酒盈樽。引壺觴以自酌，眄庭柯以怡顏，倚南窗以寄傲，審容膝之易安。園日涉以成趣，門雖設而常關。策扶老以流憩，時矯首而遐觀。雲無心以出岫，鳥倦飛而知還。景翳翳以將入，撫孤松而盤桓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5289,12 +5289,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3211D7-117B-9949-A693-136EB809C7D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3F0A20-3E45-224A-BBEB-7722B3DFB250}">
   <dimension ref="A1:A405"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <sheetData>
@@ -7330,12 +7328,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E95E34-DD45-BD45-B3D0-80E30B0402DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFF825A-16AF-564F-B9F8-4C7C669001C7}">
   <dimension ref="A1:A405"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <sheetData>
@@ -9371,12 +9367,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF329890-B58E-064E-BAFE-8BB4BFB825E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E015E91-628D-F84C-9C65-D16449531CA8}">
   <dimension ref="A1:A405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <sheetData>
@@ -11412,12 +11406,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A780AC3F-D050-424A-A73B-45F29CF965DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E10A728-7173-2040-AB73-78EC397C13CF}">
   <dimension ref="A1:A405"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <sheetData>
@@ -13453,12 +13445,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560F5F77-1854-D248-81CF-7D663FF99984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5861F2E8-F964-BC42-8043-C1AE39987263}">
   <dimension ref="A1:A405"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <sheetData>
@@ -15494,10 +15484,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156662B4-B287-8345-9C61-AC22DA5525F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C027968A-C884-4245-BE25-CF567D31A1FE}">
   <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <sheetData>
@@ -15518,7 +15508,7 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>1495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -15538,7 +15528,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>9555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -15558,7 +15548,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>6680</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -15578,7 +15568,7 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>5705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -15603,7 +15593,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>1025</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -15623,7 +15613,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>4494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -15643,7 +15633,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>7237</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -15663,7 +15653,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>8937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -15688,7 +15678,7 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <v>305</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -15708,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -15733,7 +15723,7 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>9552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -15753,7 +15743,7 @@
         <v>7</v>
       </c>
       <c r="F15">
-        <v>8964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -15773,7 +15763,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -15793,7 +15783,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -15813,7 +15803,7 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>1735</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -15833,7 +15823,7 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>3827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -15853,7 +15843,7 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <v>3993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -15878,7 +15868,7 @@
         <v>5</v>
       </c>
       <c r="F22">
-        <v>5704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -15898,7 +15888,7 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>10353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -15918,7 +15908,7 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>7329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -15938,7 +15928,7 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <v>9833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -15958,7 +15948,7 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>2984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -15978,7 +15968,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>9061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -16003,7 +15993,7 @@
         <v>7</v>
       </c>
       <c r="F29">
-        <v>5137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -16023,7 +16013,7 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <v>9452</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -16043,7 +16033,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>2455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -16063,7 +16053,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>9150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -16083,7 +16073,7 @@
         <v>4</v>
       </c>
       <c r="F33">
-        <v>305</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -16103,7 +16093,7 @@
         <v>3</v>
       </c>
       <c r="F34">
-        <v>2038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -16128,7 +16118,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>9125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -16148,7 +16138,7 @@
         <v>5</v>
       </c>
       <c r="F37">
-        <v>6680</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -16168,7 +16158,7 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <v>8441</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -16188,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>9150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -16208,7 +16198,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>6240</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -16228,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -16253,7 +16243,7 @@
         <v>8</v>
       </c>
       <c r="F43">
-        <v>7188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -16273,7 +16263,7 @@
         <v>5</v>
       </c>
       <c r="F44">
-        <v>5691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -16293,7 +16283,7 @@
         <v>5</v>
       </c>
       <c r="F45">
-        <v>5021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -16313,7 +16303,7 @@
         <v>5</v>
       </c>
       <c r="F46">
-        <v>9724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -16333,7 +16323,7 @@
         <v>7</v>
       </c>
       <c r="F47">
-        <v>10135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -16353,7 +16343,7 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <v>4243</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -16378,7 +16368,7 @@
         <v>4</v>
       </c>
       <c r="F50">
-        <v>7947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -16398,7 +16388,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>1239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -16418,7 +16408,7 @@
         <v>7</v>
       </c>
       <c r="F52">
-        <v>10077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -16438,7 +16428,7 @@
         <v>5</v>
       </c>
       <c r="F53">
-        <v>9833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -16458,7 +16448,7 @@
         <v>8</v>
       </c>
       <c r="F54">
-        <v>3008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -16478,7 +16468,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -16503,7 +16493,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>10172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -16523,7 +16513,7 @@
         <v>5</v>
       </c>
       <c r="F58">
-        <v>5497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -16543,7 +16533,7 @@
         <v>5</v>
       </c>
       <c r="F59">
-        <v>5497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -16563,7 +16553,7 @@
         <v>2</v>
       </c>
       <c r="F60">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -16583,7 +16573,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>3133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -16603,7 +16593,7 @@
         <v>5</v>
       </c>
       <c r="F62">
-        <v>7423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -16628,7 +16618,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>2363</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -16648,7 +16638,7 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>5202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -16668,7 +16658,7 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>5202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -16688,7 +16678,7 @@
         <v>5</v>
       </c>
       <c r="F67">
-        <v>9833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -16708,7 +16698,7 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -16728,7 +16718,7 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>9197</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -16753,7 +16743,7 @@
         <v>7</v>
       </c>
       <c r="F71">
-        <v>539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -16773,7 +16763,7 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>3177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -16793,7 +16783,7 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>8789</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -16813,7 +16803,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -16833,7 +16823,7 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <v>1039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -16853,7 +16843,7 @@
         <v>7</v>
       </c>
       <c r="F76">
-        <v>5077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -16878,7 +16868,7 @@
         <v>7</v>
       </c>
       <c r="F78">
-        <v>7162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -16898,7 +16888,7 @@
         <v>5</v>
       </c>
       <c r="F79">
-        <v>7081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -16918,7 +16908,7 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>2241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -16938,7 +16928,7 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>9150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -16958,7 +16948,7 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>9249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -16978,7 +16968,7 @@
         <v>5</v>
       </c>
       <c r="F83">
-        <v>9921</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -17003,7 +16993,7 @@
         <v>2</v>
       </c>
       <c r="F85">
-        <v>10491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -17023,7 +17013,7 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>8010</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -17043,7 +17033,7 @@
         <v>5</v>
       </c>
       <c r="F87">
-        <v>3840</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -17063,7 +17053,7 @@
         <v>2</v>
       </c>
       <c r="F88">
-        <v>9451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -17088,7 +17078,7 @@
         <v>3</v>
       </c>
       <c r="F90">
-        <v>6657</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -17108,7 +17098,7 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>1269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -17128,7 +17118,7 @@
         <v>3</v>
       </c>
       <c r="F92">
-        <v>6657</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -17148,7 +17138,7 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -17173,7 +17163,7 @@
         <v>5</v>
       </c>
       <c r="F95">
-        <v>2768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -17193,7 +17183,7 @@
         <v>3</v>
       </c>
       <c r="F96">
-        <v>8902</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -17213,7 +17203,7 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>4159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -17233,7 +17223,7 @@
         <v>5</v>
       </c>
       <c r="F98">
-        <v>3825</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -17258,7 +17248,7 @@
         <v>7</v>
       </c>
       <c r="F100">
-        <v>10043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -17278,7 +17268,7 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <v>8809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -17298,7 +17288,7 @@
         <v>7</v>
       </c>
       <c r="F102">
-        <v>5160</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -17318,7 +17308,7 @@
         <v>5</v>
       </c>
       <c r="F103">
-        <v>482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -17343,7 +17333,7 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>7541</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -17363,7 +17353,7 @@
         <v>3</v>
       </c>
       <c r="F106">
-        <v>3372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -17383,7 +17373,7 @@
         <v>7</v>
       </c>
       <c r="F107">
-        <v>10417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -17403,7 +17393,7 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>2394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -17428,7 +17418,7 @@
         <v>5</v>
       </c>
       <c r="F110">
-        <v>5995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -17448,7 +17438,7 @@
         <v>4</v>
       </c>
       <c r="F111">
-        <v>5865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -17468,7 +17458,7 @@
         <v>5</v>
       </c>
       <c r="F112">
-        <v>10396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -17488,7 +17478,7 @@
         <v>5</v>
       </c>
       <c r="F113">
-        <v>442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -17513,7 +17503,7 @@
         <v>5</v>
       </c>
       <c r="F115">
-        <v>5701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -17533,7 +17523,7 @@
         <v>3</v>
       </c>
       <c r="F116">
-        <v>10304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -17553,7 +17543,7 @@
         <v>8</v>
       </c>
       <c r="F117">
-        <v>1471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -17573,7 +17563,7 @@
         <v>4</v>
       </c>
       <c r="F118">
-        <v>7014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -17598,7 +17588,7 @@
         <v>2</v>
       </c>
       <c r="F120">
-        <v>10260</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -17618,7 +17608,7 @@
         <v>2</v>
       </c>
       <c r="F121">
-        <v>10243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -17638,7 +17628,7 @@
         <v>5</v>
       </c>
       <c r="F122">
-        <v>3801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -17658,7 +17648,7 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -17683,7 +17673,7 @@
         <v>2</v>
       </c>
       <c r="F125">
-        <v>6888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -17703,7 +17693,7 @@
         <v>5</v>
       </c>
       <c r="F126">
-        <v>5066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -17723,7 +17713,7 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>7248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -17743,7 +17733,7 @@
         <v>2</v>
       </c>
       <c r="F128">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -17763,7 +17753,7 @@
         <v>7</v>
       </c>
       <c r="F129">
-        <v>8964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -17783,7 +17773,7 @@
         <v>4</v>
       </c>
       <c r="F130">
-        <v>10671</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -17808,7 +17798,7 @@
         <v>2</v>
       </c>
       <c r="F132">
-        <v>10668</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -17828,7 +17818,7 @@
         <v>5</v>
       </c>
       <c r="F133">
-        <v>3745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -17848,7 +17838,7 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <v>6114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -17868,7 +17858,7 @@
         <v>2</v>
       </c>
       <c r="F135">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -17888,7 +17878,7 @@
         <v>5</v>
       </c>
       <c r="F136">
-        <v>9894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -17908,7 +17898,7 @@
         <v>5</v>
       </c>
       <c r="F137">
-        <v>2152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -17933,7 +17923,7 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>9084</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -17953,7 +17943,7 @@
         <v>5</v>
       </c>
       <c r="F140">
-        <v>7725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -17973,7 +17963,7 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <v>2356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -17993,7 +17983,7 @@
         <v>2</v>
       </c>
       <c r="F142">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -18013,7 +18003,7 @@
         <v>3</v>
       </c>
       <c r="F143">
-        <v>9548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -18033,7 +18023,7 @@
         <v>7</v>
       </c>
       <c r="F144">
-        <v>6486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -18058,7 +18048,7 @@
         <v>2</v>
       </c>
       <c r="F146">
-        <v>1307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -18078,7 +18068,7 @@
         <v>5</v>
       </c>
       <c r="F147">
-        <v>6007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -18098,7 +18088,7 @@
         <v>4</v>
       </c>
       <c r="F148">
-        <v>1384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -18118,7 +18108,7 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>9150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -18138,7 +18128,7 @@
         <v>8</v>
       </c>
       <c r="F150">
-        <v>4013</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -18158,7 +18148,7 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>1976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -18183,7 +18173,7 @@
         <v>5</v>
       </c>
       <c r="F153">
-        <v>4494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -18203,7 +18193,7 @@
         <v>8</v>
       </c>
       <c r="F154">
-        <v>7182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -18223,7 +18213,7 @@
         <v>8</v>
       </c>
       <c r="F155">
-        <v>8267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -18243,7 +18233,7 @@
         <v>2</v>
       </c>
       <c r="F156">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -18263,7 +18253,7 @@
         <v>5</v>
       </c>
       <c r="F157">
-        <v>3775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -18283,7 +18273,7 @@
         <v>3</v>
       </c>
       <c r="F158">
-        <v>9657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -18308,7 +18298,7 @@
         <v>5</v>
       </c>
       <c r="F160">
-        <v>482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -18328,7 +18318,7 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <v>1517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -18348,7 +18338,7 @@
         <v>4</v>
       </c>
       <c r="F162">
-        <v>992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -18368,7 +18358,7 @@
         <v>5</v>
       </c>
       <c r="F163">
-        <v>9833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -18388,7 +18378,7 @@
         <v>5</v>
       </c>
       <c r="F164">
-        <v>7417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -18408,7 +18398,7 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>4109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -18433,7 +18423,7 @@
         <v>4</v>
       </c>
       <c r="F167">
-        <v>3664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -18453,7 +18443,7 @@
         <v>5</v>
       </c>
       <c r="F168">
-        <v>8946</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -18473,7 +18463,7 @@
         <v>2</v>
       </c>
       <c r="F169">
-        <v>6201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -18493,7 +18483,7 @@
         <v>2</v>
       </c>
       <c r="F170">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -18513,7 +18503,7 @@
         <v>5</v>
       </c>
       <c r="F171">
-        <v>10313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -18533,7 +18523,7 @@
         <v>3</v>
       </c>
       <c r="F172">
-        <v>9568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -18558,7 +18548,7 @@
         <v>5</v>
       </c>
       <c r="F174">
-        <v>9860</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -18578,7 +18568,7 @@
         <v>2</v>
       </c>
       <c r="F175">
-        <v>5301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -18598,7 +18588,7 @@
         <v>2</v>
       </c>
       <c r="F176">
-        <v>10253</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -18618,7 +18608,7 @@
         <v>5</v>
       </c>
       <c r="F177">
-        <v>9833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -18638,7 +18628,7 @@
         <v>5</v>
       </c>
       <c r="F178">
-        <v>1912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -18658,7 +18648,7 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>4092</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -18683,7 +18673,7 @@
         <v>5</v>
       </c>
       <c r="F181">
-        <v>508</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -18703,7 +18693,7 @@
         <v>5</v>
       </c>
       <c r="F182">
-        <v>8934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -18723,7 +18713,7 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <v>1256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -18743,7 +18733,7 @@
         <v>2</v>
       </c>
       <c r="F184">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -18763,7 +18753,7 @@
         <v>4</v>
       </c>
       <c r="F185">
-        <v>370</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -18783,7 +18773,7 @@
         <v>7</v>
       </c>
       <c r="F186">
-        <v>10424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -18808,7 +18798,7 @@
         <v>2</v>
       </c>
       <c r="F188">
-        <v>10542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -18828,7 +18818,7 @@
         <v>7</v>
       </c>
       <c r="F189">
-        <v>4567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -18848,7 +18838,7 @@
         <v>1</v>
       </c>
       <c r="F190">
-        <v>1535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -18868,7 +18858,7 @@
         <v>5</v>
       </c>
       <c r="F191">
-        <v>9833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -18888,7 +18878,7 @@
         <v>1</v>
       </c>
       <c r="F192">
-        <v>9125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -18908,7 +18898,7 @@
         <v>5</v>
       </c>
       <c r="F193">
-        <v>4527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -18933,7 +18923,7 @@
         <v>2</v>
       </c>
       <c r="F195">
-        <v>3280</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -18953,7 +18943,7 @@
         <v>3</v>
       </c>
       <c r="F196">
-        <v>9642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -18973,7 +18963,7 @@
         <v>3</v>
       </c>
       <c r="F197">
-        <v>9642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -18993,7 +18983,7 @@
         <v>2</v>
       </c>
       <c r="F198">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -19013,7 +19003,7 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>7237</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -19033,7 +19023,7 @@
         <v>8</v>
       </c>
       <c r="F200">
-        <v>1471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -19058,7 +19048,7 @@
         <v>2</v>
       </c>
       <c r="F202">
-        <v>8864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -19078,7 +19068,7 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>4683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -19098,7 +19088,7 @@
         <v>5</v>
       </c>
       <c r="F204">
-        <v>5995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -19118,7 +19108,7 @@
         <v>5</v>
       </c>
       <c r="F205">
-        <v>9833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -19138,7 +19128,7 @@
         <v>5</v>
       </c>
       <c r="F206">
-        <v>4457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -19158,7 +19148,7 @@
         <v>5</v>
       </c>
       <c r="F207">
-        <v>4558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -19193,7 +19183,7 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>1495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -19213,7 +19203,7 @@
         <v>3</v>
       </c>
       <c r="F212">
-        <v>9555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -19233,7 +19223,7 @@
         <v>5</v>
       </c>
       <c r="F213">
-        <v>6680</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -19253,7 +19243,7 @@
         <v>5</v>
       </c>
       <c r="F214">
-        <v>5705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -19278,7 +19268,7 @@
         <v>2</v>
       </c>
       <c r="F216">
-        <v>3362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -19298,7 +19288,7 @@
         <v>4</v>
       </c>
       <c r="F217">
-        <v>7006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -19318,7 +19308,7 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>8296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -19338,7 +19328,7 @@
         <v>2</v>
       </c>
       <c r="F219">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -19358,7 +19348,7 @@
         <v>8</v>
       </c>
       <c r="F220">
-        <v>4634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -19378,7 +19368,7 @@
         <v>5</v>
       </c>
       <c r="F221">
-        <v>10381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -19403,7 +19393,7 @@
         <v>3</v>
       </c>
       <c r="F223">
-        <v>9613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -19423,7 +19413,7 @@
         <v>2</v>
       </c>
       <c r="F224">
-        <v>9434</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -19443,7 +19433,7 @@
         <v>2</v>
       </c>
       <c r="F225">
-        <v>10593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -19463,7 +19453,7 @@
         <v>5</v>
       </c>
       <c r="F226">
-        <v>9833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -19483,7 +19473,7 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>7240</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -19503,7 +19493,7 @@
         <v>5</v>
       </c>
       <c r="F228">
-        <v>1734</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -19528,7 +19518,7 @@
         <v>4</v>
       </c>
       <c r="F230">
-        <v>2699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -19548,7 +19538,7 @@
         <v>3</v>
       </c>
       <c r="F231">
-        <v>1884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -19568,7 +19558,7 @@
         <v>5</v>
       </c>
       <c r="F232">
-        <v>2154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -19588,7 +19578,7 @@
         <v>5</v>
       </c>
       <c r="F233">
-        <v>5705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -19608,7 +19598,7 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -19628,7 +19618,7 @@
         <v>5</v>
       </c>
       <c r="F235">
-        <v>10331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -19653,7 +19643,7 @@
         <v>8</v>
       </c>
       <c r="F237">
-        <v>4637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -19673,7 +19663,7 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>6842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -19693,7 +19683,7 @@
         <v>4</v>
       </c>
       <c r="F239">
-        <v>3661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -19713,7 +19703,7 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>9150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -19733,7 +19723,7 @@
         <v>5</v>
       </c>
       <c r="F241">
-        <v>3770</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -19753,7 +19743,7 @@
         <v>7</v>
       </c>
       <c r="F242">
-        <v>7918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -19778,7 +19768,7 @@
         <v>8</v>
       </c>
       <c r="F244">
-        <v>2962</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -19798,7 +19788,7 @@
         <v>5</v>
       </c>
       <c r="F245">
-        <v>1400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -19818,7 +19808,7 @@
         <v>1</v>
       </c>
       <c r="F246">
-        <v>9189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -19838,7 +19828,7 @@
         <v>2</v>
       </c>
       <c r="F247">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -19858,7 +19848,7 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>5234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -19878,7 +19868,7 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>10191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -19903,7 +19893,7 @@
         <v>5</v>
       </c>
       <c r="F251">
-        <v>2711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -19923,7 +19913,7 @@
         <v>5</v>
       </c>
       <c r="F252">
-        <v>7077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -19943,7 +19933,7 @@
         <v>3</v>
       </c>
       <c r="F253">
-        <v>6307</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -19963,7 +19953,7 @@
         <v>5</v>
       </c>
       <c r="F254">
-        <v>9887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -19983,7 +19973,7 @@
         <v>2</v>
       </c>
       <c r="F255">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -20003,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="F256">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -20023,7 +20013,7 @@
         <v>8</v>
       </c>
       <c r="F257">
-        <v>1463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -20048,7 +20038,7 @@
         <v>1</v>
       </c>
       <c r="F259">
-        <v>7237</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -20068,7 +20058,7 @@
         <v>2</v>
       </c>
       <c r="F260">
-        <v>10260</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -20088,7 +20078,7 @@
         <v>7</v>
       </c>
       <c r="F261">
-        <v>8968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -20108,7 +20098,7 @@
         <v>7</v>
       </c>
       <c r="F262">
-        <v>5145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -20128,7 +20118,7 @@
         <v>1</v>
       </c>
       <c r="F263">
-        <v>5583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -20148,7 +20138,7 @@
         <v>5</v>
       </c>
       <c r="F264">
-        <v>10354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -20173,7 +20163,7 @@
         <v>8</v>
       </c>
       <c r="F266">
-        <v>4064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -20193,7 +20183,7 @@
         <v>7</v>
       </c>
       <c r="F267">
-        <v>3902</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -20213,7 +20203,7 @@
         <v>1</v>
       </c>
       <c r="F268">
-        <v>6784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -20233,7 +20223,7 @@
         <v>1</v>
       </c>
       <c r="F269">
-        <v>8432</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -20258,7 +20248,7 @@
         <v>8</v>
       </c>
       <c r="F271">
-        <v>4064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -20278,7 +20268,7 @@
         <v>7</v>
       </c>
       <c r="F272">
-        <v>8408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -20298,7 +20288,7 @@
         <v>1</v>
       </c>
       <c r="F273">
-        <v>4683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -20318,7 +20308,7 @@
         <v>1</v>
       </c>
       <c r="F274">
-        <v>10172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -20343,7 +20333,7 @@
         <v>3</v>
       </c>
       <c r="F276">
-        <v>9552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -20363,7 +20353,7 @@
         <v>2</v>
       </c>
       <c r="F277">
-        <v>5336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -20383,7 +20373,7 @@
         <v>2</v>
       </c>
       <c r="F278">
-        <v>5317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -20403,7 +20393,7 @@
         <v>2</v>
       </c>
       <c r="F279">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -20423,7 +20413,7 @@
         <v>5</v>
       </c>
       <c r="F280">
-        <v>1413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -20443,7 +20433,7 @@
         <v>4</v>
       </c>
       <c r="F281">
-        <v>2704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -20468,7 +20458,7 @@
         <v>8</v>
       </c>
       <c r="F283">
-        <v>3990</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -20488,7 +20478,7 @@
         <v>5</v>
       </c>
       <c r="F284">
-        <v>9748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -20508,7 +20498,7 @@
         <v>1</v>
       </c>
       <c r="F285">
-        <v>9120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -20528,7 +20518,7 @@
         <v>5</v>
       </c>
       <c r="F286">
-        <v>9833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -20548,7 +20538,7 @@
         <v>1</v>
       </c>
       <c r="F287">
-        <v>3108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -20568,7 +20558,7 @@
         <v>1</v>
       </c>
       <c r="F288">
-        <v>10157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -20593,7 +20583,7 @@
         <v>8</v>
       </c>
       <c r="F290">
-        <v>3018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -20613,7 +20603,7 @@
         <v>1</v>
       </c>
       <c r="F291">
-        <v>1269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -20633,7 +20623,7 @@
         <v>1</v>
       </c>
       <c r="F292">
-        <v>1269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -20653,7 +20643,7 @@
         <v>2</v>
       </c>
       <c r="F293">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -20673,7 +20663,7 @@
         <v>3</v>
       </c>
       <c r="F294">
-        <v>7349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -20693,7 +20683,7 @@
         <v>5</v>
       </c>
       <c r="F295">
-        <v>3782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -20718,7 +20708,7 @@
         <v>5</v>
       </c>
       <c r="F297">
-        <v>4479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -20738,7 +20728,7 @@
         <v>1</v>
       </c>
       <c r="F298">
-        <v>4097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -20758,7 +20748,7 @@
         <v>1</v>
       </c>
       <c r="F299">
-        <v>4097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -20778,7 +20768,7 @@
         <v>5</v>
       </c>
       <c r="F300">
-        <v>9833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -20798,7 +20788,7 @@
         <v>2</v>
       </c>
       <c r="F301">
-        <v>9412</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -20818,7 +20808,7 @@
         <v>5</v>
       </c>
       <c r="F302">
-        <v>10313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -20843,7 +20833,7 @@
         <v>7</v>
       </c>
       <c r="F304">
-        <v>1145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -20863,7 +20853,7 @@
         <v>7</v>
       </c>
       <c r="F305">
-        <v>2181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -20883,7 +20873,7 @@
         <v>8</v>
       </c>
       <c r="F306">
-        <v>617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -20903,7 +20893,7 @@
         <v>1</v>
       </c>
       <c r="F307">
-        <v>9150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -20923,7 +20913,7 @@
         <v>4</v>
       </c>
       <c r="F308">
-        <v>3490</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -20943,7 +20933,7 @@
         <v>5</v>
       </c>
       <c r="F309">
-        <v>9860</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -20968,7 +20958,7 @@
         <v>2</v>
       </c>
       <c r="F311">
-        <v>7575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -20988,7 +20978,7 @@
         <v>5</v>
       </c>
       <c r="F312">
-        <v>5048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -21008,7 +20998,7 @@
         <v>1</v>
       </c>
       <c r="F313">
-        <v>3196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -21028,7 +21018,7 @@
         <v>1</v>
       </c>
       <c r="F314">
-        <v>9150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -21048,7 +21038,7 @@
         <v>5</v>
       </c>
       <c r="F315">
-        <v>3837</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -21068,7 +21058,7 @@
         <v>1</v>
       </c>
       <c r="F316">
-        <v>10210</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -21103,7 +21093,7 @@
         <v>2</v>
       </c>
       <c r="F320">
-        <v>9452</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -21123,7 +21113,7 @@
         <v>3</v>
       </c>
       <c r="F321">
-        <v>9632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -21143,7 +21133,7 @@
         <v>7</v>
       </c>
       <c r="F322">
-        <v>5145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -21168,7 +21158,7 @@
         <v>7</v>
       </c>
       <c r="F324">
-        <v>10138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -21188,7 +21178,7 @@
         <v>5</v>
       </c>
       <c r="F325">
-        <v>3827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -21208,7 +21198,7 @@
         <v>2</v>
       </c>
       <c r="F326">
-        <v>9451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -21228,7 +21218,7 @@
         <v>7</v>
       </c>
       <c r="F327">
-        <v>8663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -21248,7 +21238,7 @@
         <v>4</v>
       </c>
       <c r="F328">
-        <v>2699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -21268,7 +21258,7 @@
         <v>1</v>
       </c>
       <c r="F329">
-        <v>9099</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -21288,7 +21278,7 @@
         <v>5</v>
       </c>
       <c r="F330">
-        <v>9860</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -21313,7 +21303,7 @@
         <v>4</v>
       </c>
       <c r="F332">
-        <v>2119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -21333,7 +21323,7 @@
         <v>4</v>
       </c>
       <c r="F333">
-        <v>305</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -21353,7 +21343,7 @@
         <v>2</v>
       </c>
       <c r="F334">
-        <v>1610</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -21373,7 +21363,7 @@
         <v>1</v>
       </c>
       <c r="F335">
-        <v>1256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -21393,7 +21383,7 @@
         <v>5</v>
       </c>
       <c r="F336">
-        <v>1411</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -21413,7 +21403,7 @@
         <v>3</v>
       </c>
       <c r="F337">
-        <v>9555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -21433,7 +21423,7 @@
         <v>5</v>
       </c>
       <c r="F338">
-        <v>10330</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -21463,7 +21453,7 @@
         <v>5</v>
       </c>
       <c r="F341">
-        <v>1735</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -21483,7 +21473,7 @@
         <v>5</v>
       </c>
       <c r="F342">
-        <v>2855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -21503,7 +21493,7 @@
         <v>5</v>
       </c>
       <c r="F343">
-        <v>2855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -21523,7 +21513,7 @@
         <v>8</v>
       </c>
       <c r="F344">
-        <v>6084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -21543,7 +21533,7 @@
         <v>5</v>
       </c>
       <c r="F345">
-        <v>6432</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -21563,7 +21553,7 @@
         <v>1</v>
       </c>
       <c r="F346">
-        <v>9150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -21588,7 +21578,7 @@
         <v>3</v>
       </c>
       <c r="F348">
-        <v>8898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -21608,7 +21598,7 @@
         <v>3</v>
       </c>
       <c r="F349">
-        <v>1650</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -21628,7 +21618,7 @@
         <v>1</v>
       </c>
       <c r="F350">
-        <v>1542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -21648,7 +21638,7 @@
         <v>5</v>
       </c>
       <c r="F351">
-        <v>5048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -21668,7 +21658,7 @@
         <v>7</v>
       </c>
       <c r="F352">
-        <v>4596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -21693,7 +21683,7 @@
         <v>3</v>
       </c>
       <c r="F354">
-        <v>5636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -21713,7 +21703,7 @@
         <v>1</v>
       </c>
       <c r="F355">
-        <v>7276</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -21733,7 +21723,7 @@
         <v>4</v>
       </c>
       <c r="F356">
-        <v>305</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -21753,7 +21743,7 @@
         <v>2</v>
       </c>
       <c r="F357">
-        <v>6240</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -21773,7 +21763,7 @@
         <v>1</v>
       </c>
       <c r="F358">
-        <v>9079</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -21798,7 +21788,7 @@
         <v>5</v>
       </c>
       <c r="F360">
-        <v>3089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -21818,7 +21808,7 @@
         <v>5</v>
       </c>
       <c r="F361">
-        <v>7389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -21838,7 +21828,7 @@
         <v>5</v>
       </c>
       <c r="F362">
-        <v>7079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -21858,7 +21848,7 @@
         <v>2</v>
       </c>
       <c r="F363">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -21878,7 +21868,7 @@
         <v>1</v>
       </c>
       <c r="F364">
-        <v>4683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -21898,7 +21888,7 @@
         <v>2</v>
       </c>
       <c r="F365">
-        <v>2455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -21923,7 +21913,7 @@
         <v>8</v>
       </c>
       <c r="F367">
-        <v>4064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -21943,7 +21933,7 @@
         <v>8</v>
       </c>
       <c r="F368">
-        <v>7191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -21963,7 +21953,7 @@
         <v>7</v>
       </c>
       <c r="F369">
-        <v>7460</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -21983,7 +21973,7 @@
         <v>5</v>
       </c>
       <c r="F370">
-        <v>9833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -22003,7 +21993,7 @@
         <v>5</v>
       </c>
       <c r="F371">
-        <v>7093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -22023,7 +22013,7 @@
         <v>2</v>
       </c>
       <c r="F372">
-        <v>8812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -22048,7 +22038,7 @@
         <v>1</v>
       </c>
       <c r="F374">
-        <v>3142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -22068,7 +22058,7 @@
         <v>1</v>
       </c>
       <c r="F375">
-        <v>2277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -22093,7 +22083,7 @@
         <v>2</v>
       </c>
       <c r="F377">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -22113,7 +22103,7 @@
         <v>1</v>
       </c>
       <c r="F378">
-        <v>9188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -22133,7 +22123,7 @@
         <v>3</v>
       </c>
       <c r="F379">
-        <v>5418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -22158,7 +22148,7 @@
         <v>5</v>
       </c>
       <c r="F381">
-        <v>1398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -22178,7 +22168,7 @@
         <v>1</v>
       </c>
       <c r="F382">
-        <v>3242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -22198,7 +22188,7 @@
         <v>5</v>
       </c>
       <c r="F383">
-        <v>10313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -22218,7 +22208,7 @@
         <v>5</v>
       </c>
       <c r="F384">
-        <v>9833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -22238,7 +22228,7 @@
         <v>3</v>
       </c>
       <c r="F385">
-        <v>8899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -22258,7 +22248,7 @@
         <v>1</v>
       </c>
       <c r="F386">
-        <v>9182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -22283,7 +22273,7 @@
         <v>5</v>
       </c>
       <c r="F388">
-        <v>5434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -22303,7 +22293,7 @@
         <v>5</v>
       </c>
       <c r="F389">
-        <v>3781</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -22323,7 +22313,7 @@
         <v>3</v>
       </c>
       <c r="F390">
-        <v>7891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -22343,7 +22333,7 @@
         <v>2</v>
       </c>
       <c r="F391">
-        <v>9432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -22363,7 +22353,7 @@
         <v>1</v>
       </c>
       <c r="F392">
-        <v>1495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -22383,7 +22373,7 @@
         <v>7</v>
       </c>
       <c r="F393">
-        <v>7143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -22408,7 +22398,7 @@
         <v>8</v>
       </c>
       <c r="F395">
-        <v>2962</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -22428,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="F396">
-        <v>8789</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -22448,7 +22438,7 @@
         <v>1</v>
       </c>
       <c r="F397">
-        <v>669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -22468,7 +22458,7 @@
         <v>7</v>
       </c>
       <c r="F398">
-        <v>3902</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -22488,7 +22478,7 @@
         <v>4</v>
       </c>
       <c r="F399">
-        <v>2699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -22508,7 +22498,7 @@
         <v>5</v>
       </c>
       <c r="F400">
-        <v>5704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -22528,7 +22518,7 @@
         <v>5</v>
       </c>
       <c r="F401">
-        <v>9955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -22548,1644 +22538,2909 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE90C74-6674-FB4E-8C5E-26974A5CD167}">
-  <dimension ref="A1:G71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E069559C-0FF0-6344-BA17-6F80C9C3D46D}">
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>6680</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>6731</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>273</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
         <v>271</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" t="s">
         <v>272</v>
       </c>
-      <c r="E1">
+      <c r="G2">
         <v>7</v>
       </c>
-      <c r="F1">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1025</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>7335</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>7273</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>305</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>10212</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>4880</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>8804</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1735</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1796</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>9452</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>973</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>305</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>10212</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" t="s">
+        <v>297</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>4880</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" t="s">
+        <v>299</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>8804</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>9125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>329</v>
+      </c>
+      <c r="E20" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>9576</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" t="s">
+        <v>269</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>6680</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>37</v>
+      </c>
+      <c r="B23">
         <v>6731</v>
       </c>
-      <c r="G1">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>8441</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>331</v>
+      </c>
+      <c r="E24" t="s">
+        <v>285</v>
+      </c>
+      <c r="F24" t="s">
+        <v>332</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>10483</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" t="s">
+        <v>334</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>4243</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" t="s">
+        <v>282</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>4592</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27" t="s">
+        <v>282</v>
+      </c>
+      <c r="F27" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>2363</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E28" t="s">
+        <v>275</v>
+      </c>
+      <c r="F28" t="s">
+        <v>325</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>2493</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>358</v>
+      </c>
+      <c r="E29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <v>9197</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" t="s">
+        <v>282</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>9644</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>363</v>
+      </c>
+      <c r="E31" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <v>8789</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>300</v>
+      </c>
+      <c r="E32" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>73</v>
+      </c>
+      <c r="B33">
+        <v>8947</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>90</v>
+      </c>
+      <c r="B34">
+        <v>6657</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>380</v>
+      </c>
+      <c r="E34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>90</v>
+      </c>
+      <c r="B35">
+        <v>6755</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>381</v>
+      </c>
+      <c r="E35" t="s">
+        <v>285</v>
+      </c>
+      <c r="F35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>90</v>
+      </c>
+      <c r="B36">
+        <v>10644</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>382</v>
+      </c>
+      <c r="E36" t="s">
+        <v>285</v>
+      </c>
+      <c r="F36" t="s">
+        <v>377</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>92</v>
+      </c>
+      <c r="B37">
+        <v>6657</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>380</v>
+      </c>
+      <c r="E37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>92</v>
+      </c>
+      <c r="B38">
+        <v>6755</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>381</v>
+      </c>
+      <c r="E38" t="s">
+        <v>285</v>
+      </c>
+      <c r="F38" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>92</v>
+      </c>
+      <c r="B39">
+        <v>10644</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>382</v>
+      </c>
+      <c r="E39" t="s">
+        <v>285</v>
+      </c>
+      <c r="F39" t="s">
+        <v>377</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>96</v>
+      </c>
+      <c r="B40">
+        <v>8902</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>386</v>
+      </c>
+      <c r="E40" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" t="s">
+        <v>292</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>96</v>
+      </c>
+      <c r="B41">
+        <v>10309</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E41" t="s">
+        <v>275</v>
+      </c>
+      <c r="F41" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>98</v>
+      </c>
+      <c r="B42">
+        <v>3825</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>389</v>
+      </c>
+      <c r="E42" t="s">
+        <v>321</v>
+      </c>
+      <c r="F42" t="s">
+        <v>310</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>98</v>
+      </c>
+      <c r="B43">
+        <v>3909</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>390</v>
+      </c>
+      <c r="E43" t="s">
+        <v>321</v>
+      </c>
+      <c r="F43" t="s">
+        <v>310</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>105</v>
+      </c>
+      <c r="B44">
+        <v>7541</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>395</v>
+      </c>
+      <c r="E44" t="s">
+        <v>305</v>
+      </c>
+      <c r="F44" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>105</v>
+      </c>
+      <c r="B45">
+        <v>7644</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>397</v>
+      </c>
+      <c r="E45" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>120</v>
+      </c>
+      <c r="B46">
+        <v>10260</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
+        <v>410</v>
+      </c>
+      <c r="E46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>120</v>
+      </c>
+      <c r="B47">
+        <v>10431</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
+        <v>411</v>
+      </c>
+      <c r="E47" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" t="s">
+        <v>297</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>130</v>
+      </c>
+      <c r="B48">
+        <v>10671</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>418</v>
+      </c>
+      <c r="E48" t="s">
+        <v>285</v>
+      </c>
+      <c r="F48" t="s">
+        <v>403</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>130</v>
+      </c>
+      <c r="B49">
+        <v>7370</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>419</v>
+      </c>
+      <c r="E49" t="s">
+        <v>285</v>
+      </c>
+      <c r="F49" t="s">
+        <v>420</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>132</v>
+      </c>
+      <c r="B50">
+        <v>10668</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" t="s">
+        <v>421</v>
+      </c>
+      <c r="E50" t="s">
+        <v>291</v>
+      </c>
+      <c r="F50" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>132</v>
+      </c>
+      <c r="B51">
+        <v>10669</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>422</v>
+      </c>
+      <c r="E51" t="s">
+        <v>291</v>
+      </c>
+      <c r="F51" t="s">
+        <v>279</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>139</v>
+      </c>
+      <c r="B52">
+        <v>9084</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>427</v>
+      </c>
+      <c r="E52" t="s">
+        <v>265</v>
+      </c>
+      <c r="F52" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>139</v>
+      </c>
+      <c r="B53">
+        <v>9438</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" t="s">
+        <v>303</v>
+      </c>
+      <c r="E53" t="s">
+        <v>282</v>
+      </c>
+      <c r="F53" t="s">
+        <v>269</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>150</v>
+      </c>
+      <c r="B54">
+        <v>4013</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" t="s">
+        <v>311</v>
+      </c>
+      <c r="E54" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" t="s">
+        <v>312</v>
+      </c>
+      <c r="G54">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>150</v>
+      </c>
+      <c r="B55">
+        <v>10117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E55" t="s">
+        <v>282</v>
+      </c>
+      <c r="F55" t="s">
+        <v>269</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>176</v>
+      </c>
+      <c r="B56">
+        <v>10253</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" t="s">
+        <v>450</v>
+      </c>
+      <c r="E56" t="s">
+        <v>305</v>
+      </c>
+      <c r="F56" t="s">
+        <v>297</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>176</v>
+      </c>
+      <c r="B57">
+        <v>10303</v>
+      </c>
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F57" t="s">
+        <v>297</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>179</v>
+      </c>
+      <c r="B58">
+        <v>4092</v>
+      </c>
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" t="s">
+        <v>444</v>
+      </c>
+      <c r="E58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F58" t="s">
+        <v>283</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>179</v>
+      </c>
+      <c r="B59">
+        <v>4276</v>
+      </c>
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" t="s">
+        <v>454</v>
+      </c>
+      <c r="E59" t="s">
+        <v>265</v>
+      </c>
+      <c r="F59" t="s">
+        <v>283</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>181</v>
+      </c>
+      <c r="B60">
+        <v>508</v>
+      </c>
+      <c r="C60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" t="s">
+        <v>455</v>
+      </c>
+      <c r="E60" t="s">
+        <v>275</v>
+      </c>
+      <c r="F60" t="s">
+        <v>365</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>181</v>
+      </c>
+      <c r="B61">
+        <v>7087</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" t="s">
+        <v>456</v>
+      </c>
+      <c r="E61" t="s">
+        <v>282</v>
+      </c>
+      <c r="F61" t="s">
+        <v>371</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>192</v>
+      </c>
+      <c r="B62">
+        <v>9125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>329</v>
+      </c>
+      <c r="E62" t="s">
         <v>278</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F62" t="s">
+        <v>269</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>192</v>
+      </c>
+      <c r="B63">
+        <v>9576</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>330</v>
+      </c>
+      <c r="E63" t="s">
+        <v>278</v>
+      </c>
+      <c r="F63" t="s">
+        <v>269</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>195</v>
+      </c>
+      <c r="B64">
+        <v>3280</v>
+      </c>
+      <c r="C64" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" t="s">
+        <v>463</v>
+      </c>
+      <c r="E64" t="s">
+        <v>265</v>
+      </c>
+      <c r="F64" t="s">
+        <v>310</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>195</v>
+      </c>
+      <c r="B65">
+        <v>3352</v>
+      </c>
+      <c r="C65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" t="s">
+        <v>464</v>
+      </c>
+      <c r="E65" t="s">
+        <v>282</v>
+      </c>
+      <c r="F65" t="s">
+        <v>310</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>199</v>
+      </c>
+      <c r="B66">
+        <v>7237</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>284</v>
+      </c>
+      <c r="E66" t="s">
+        <v>285</v>
+      </c>
+      <c r="F66" t="s">
+        <v>286</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>199</v>
+      </c>
+      <c r="B67">
+        <v>7335</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>287</v>
+      </c>
+      <c r="E67" t="s">
+        <v>285</v>
+      </c>
+      <c r="F67" t="s">
+        <v>286</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>199</v>
+      </c>
+      <c r="B68">
+        <v>7273</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>288</v>
+      </c>
+      <c r="E68" t="s">
+        <v>289</v>
+      </c>
+      <c r="F68" t="s">
+        <v>286</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>213</v>
+      </c>
+      <c r="B69">
+        <v>6680</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>270</v>
+      </c>
+      <c r="E69" t="s">
+        <v>271</v>
+      </c>
+      <c r="F69" t="s">
+        <v>272</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>213</v>
+      </c>
+      <c r="B70">
+        <v>6731</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70" t="s">
+        <v>271</v>
+      </c>
+      <c r="F70" t="s">
+        <v>272</v>
+      </c>
+      <c r="G70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>224</v>
+      </c>
+      <c r="B71">
+        <v>9434</v>
+      </c>
+      <c r="C71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" t="s">
+        <v>303</v>
+      </c>
+      <c r="E71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F71" t="s">
+        <v>269</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>224</v>
+      </c>
+      <c r="B72">
+        <v>9918</v>
+      </c>
+      <c r="C72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" t="s">
+        <v>425</v>
+      </c>
+      <c r="E72" t="s">
+        <v>282</v>
+      </c>
+      <c r="F72" t="s">
+        <v>269</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>227</v>
+      </c>
+      <c r="B73">
+        <v>7240</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" t="s">
+        <v>417</v>
+      </c>
+      <c r="E73" t="s">
+        <v>305</v>
+      </c>
+      <c r="F73" t="s">
+        <v>286</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>227</v>
+      </c>
+      <c r="B74">
+        <v>7339</v>
+      </c>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" t="s">
+        <v>476</v>
+      </c>
+      <c r="E74" t="s">
+        <v>305</v>
+      </c>
+      <c r="F74" t="s">
+        <v>286</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>228</v>
+      </c>
+      <c r="B75">
+        <v>1734</v>
+      </c>
+      <c r="C75" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" t="s">
+        <v>282</v>
+      </c>
+      <c r="F75" t="s">
+        <v>266</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>228</v>
+      </c>
+      <c r="B76">
+        <v>1760</v>
+      </c>
+      <c r="C76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" t="s">
+        <v>477</v>
+      </c>
+      <c r="E76" t="s">
+        <v>265</v>
+      </c>
+      <c r="F76" t="s">
+        <v>266</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>244</v>
+      </c>
+      <c r="B77">
+        <v>2962</v>
+      </c>
+      <c r="C77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" t="s">
+        <v>487</v>
+      </c>
+      <c r="E77" t="s">
+        <v>271</v>
+      </c>
+      <c r="F77" t="s">
+        <v>318</v>
+      </c>
+      <c r="G77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>244</v>
+      </c>
+      <c r="B78">
+        <v>7986</v>
+      </c>
+      <c r="C78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" t="s">
+        <v>488</v>
+      </c>
+      <c r="E78" t="s">
+        <v>321</v>
+      </c>
+      <c r="F78" t="s">
+        <v>347</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>244</v>
+      </c>
+      <c r="B79">
+        <v>10585</v>
+      </c>
+      <c r="C79" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" t="s">
+        <v>489</v>
+      </c>
+      <c r="E79" t="s">
+        <v>321</v>
+      </c>
+      <c r="F79" t="s">
+        <v>490</v>
+      </c>
+      <c r="G79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>253</v>
+      </c>
+      <c r="B80">
+        <v>6307</v>
+      </c>
+      <c r="C80" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" t="s">
+        <v>497</v>
+      </c>
+      <c r="E80" t="s">
+        <v>265</v>
+      </c>
+      <c r="F80" t="s">
+        <v>336</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>253</v>
+      </c>
+      <c r="B81">
+        <v>2603</v>
+      </c>
+      <c r="C81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" t="s">
+        <v>498</v>
+      </c>
+      <c r="E81" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" t="s">
+        <v>318</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>259</v>
+      </c>
+      <c r="B82">
+        <v>7237</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>284</v>
+      </c>
+      <c r="E82" t="s">
+        <v>285</v>
+      </c>
+      <c r="F82" t="s">
+        <v>286</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>259</v>
+      </c>
+      <c r="B83">
+        <v>7335</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>287</v>
+      </c>
+      <c r="E83" t="s">
+        <v>285</v>
+      </c>
+      <c r="F83" t="s">
+        <v>286</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>259</v>
+      </c>
+      <c r="B84">
+        <v>7273</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>288</v>
+      </c>
+      <c r="E84" t="s">
+        <v>289</v>
+      </c>
+      <c r="F84" t="s">
+        <v>286</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>260</v>
+      </c>
+      <c r="B85">
+        <v>10260</v>
+      </c>
+      <c r="C85" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" t="s">
+        <v>410</v>
+      </c>
+      <c r="E85" t="s">
+        <v>282</v>
+      </c>
+      <c r="F85" t="s">
+        <v>297</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>260</v>
+      </c>
+      <c r="B86">
+        <v>10431</v>
+      </c>
+      <c r="C86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" t="s">
+        <v>411</v>
+      </c>
+      <c r="E86" t="s">
+        <v>282</v>
+      </c>
+      <c r="F86" t="s">
+        <v>297</v>
+      </c>
+      <c r="G86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>267</v>
+      </c>
+      <c r="B87">
+        <v>3902</v>
+      </c>
+      <c r="C87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" t="s">
+        <v>504</v>
+      </c>
+      <c r="E87" t="s">
+        <v>291</v>
+      </c>
+      <c r="F87" t="s">
+        <v>310</v>
+      </c>
+      <c r="G87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>267</v>
+      </c>
+      <c r="B88">
+        <v>2192</v>
+      </c>
+      <c r="C88" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" t="s">
+        <v>505</v>
+      </c>
+      <c r="E88" t="s">
+        <v>291</v>
+      </c>
+      <c r="F88" t="s">
+        <v>328</v>
+      </c>
+      <c r="G88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>269</v>
+      </c>
+      <c r="B89">
+        <v>8432</v>
+      </c>
+      <c r="C89" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" t="s">
+        <v>507</v>
+      </c>
+      <c r="E89" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" t="s">
+        <v>332</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>269</v>
+      </c>
+      <c r="B90">
+        <v>9087</v>
+      </c>
+      <c r="C90" t="s">
+        <v>190</v>
+      </c>
+      <c r="D90" t="s">
+        <v>427</v>
+      </c>
+      <c r="E90" t="s">
+        <v>265</v>
+      </c>
+      <c r="F90" t="s">
+        <v>269</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>304</v>
+      </c>
+      <c r="B91">
+        <v>1145</v>
+      </c>
+      <c r="C91" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" t="s">
+        <v>520</v>
+      </c>
+      <c r="E91" t="s">
+        <v>282</v>
+      </c>
+      <c r="F91" t="s">
         <v>279</v>
       </c>
-      <c r="E2">
+      <c r="G91">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>1120</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>304</v>
+      </c>
+      <c r="B92">
+        <v>4582</v>
+      </c>
+      <c r="C92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" t="s">
+        <v>521</v>
+      </c>
+      <c r="E92" t="s">
+        <v>305</v>
+      </c>
+      <c r="F92" t="s">
+        <v>283</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>315</v>
+      </c>
+      <c r="B93">
+        <v>3837</v>
+      </c>
+      <c r="C93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" t="s">
+        <v>309</v>
+      </c>
+      <c r="E93" t="s">
+        <v>275</v>
+      </c>
+      <c r="F93" t="s">
+        <v>310</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>315</v>
+      </c>
+      <c r="B94">
+        <v>3917</v>
+      </c>
+      <c r="C94" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" t="s">
+        <v>527</v>
+      </c>
+      <c r="E94" t="s">
+        <v>275</v>
+      </c>
+      <c r="F94" t="s">
+        <v>310</v>
+      </c>
+      <c r="G94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>315</v>
+      </c>
+      <c r="B95">
+        <v>10658</v>
+      </c>
+      <c r="C95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" t="s">
+        <v>528</v>
+      </c>
+      <c r="E95" t="s">
+        <v>275</v>
+      </c>
+      <c r="F95" t="s">
+        <v>529</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>320</v>
+      </c>
+      <c r="B96">
+        <v>9452</v>
+      </c>
+      <c r="C96" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" t="s">
+        <v>303</v>
+      </c>
+      <c r="E96" t="s">
+        <v>282</v>
+      </c>
+      <c r="F96" t="s">
+        <v>269</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>320</v>
+      </c>
+      <c r="B97">
+        <v>973</v>
+      </c>
+      <c r="C97" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" t="s">
+        <v>322</v>
+      </c>
+      <c r="E97" t="s">
         <v>285</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F97" t="s">
+        <v>323</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>329</v>
+      </c>
+      <c r="B98">
+        <v>9099</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" t="s">
+        <v>427</v>
+      </c>
+      <c r="E98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F98" t="s">
+        <v>269</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>329</v>
+      </c>
+      <c r="B99">
+        <v>9317</v>
+      </c>
+      <c r="C99" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" t="s">
+        <v>533</v>
+      </c>
+      <c r="E99" t="s">
+        <v>265</v>
+      </c>
+      <c r="F99" t="s">
+        <v>269</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>333</v>
+      </c>
+      <c r="B100">
+        <v>305</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>293</v>
+      </c>
+      <c r="E100" t="s">
+        <v>294</v>
+      </c>
+      <c r="F100" t="s">
+        <v>295</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>333</v>
+      </c>
+      <c r="B101">
+        <v>10212</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>296</v>
+      </c>
+      <c r="E101" t="s">
+        <v>275</v>
+      </c>
+      <c r="F101" t="s">
+        <v>297</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>333</v>
+      </c>
+      <c r="B102">
+        <v>4880</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>298</v>
+      </c>
+      <c r="E102" t="s">
+        <v>275</v>
+      </c>
+      <c r="F102" t="s">
+        <v>299</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>333</v>
+      </c>
+      <c r="B103">
+        <v>8804</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>300</v>
+      </c>
+      <c r="E103" t="s">
+        <v>275</v>
+      </c>
+      <c r="F103" t="s">
+        <v>292</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>336</v>
+      </c>
+      <c r="B104">
+        <v>1411</v>
+      </c>
+      <c r="C104" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" t="s">
+        <v>537</v>
+      </c>
+      <c r="E104" t="s">
+        <v>316</v>
+      </c>
+      <c r="F104" t="s">
+        <v>306</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>336</v>
+      </c>
+      <c r="B105">
+        <v>1444</v>
+      </c>
+      <c r="C105" t="s">
+        <v>222</v>
+      </c>
+      <c r="D105" t="s">
+        <v>538</v>
+      </c>
+      <c r="E105" t="s">
+        <v>316</v>
+      </c>
+      <c r="F105" t="s">
+        <v>306</v>
+      </c>
+      <c r="G105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>341</v>
+      </c>
+      <c r="B106">
+        <v>1735</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" t="s">
+        <v>307</v>
+      </c>
+      <c r="E106" t="s">
+        <v>282</v>
+      </c>
+      <c r="F106" t="s">
+        <v>266</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>341</v>
+      </c>
+      <c r="B107">
+        <v>1796</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" t="s">
+        <v>308</v>
+      </c>
+      <c r="E107" t="s">
+        <v>282</v>
+      </c>
+      <c r="F107" t="s">
+        <v>266</v>
+      </c>
+      <c r="G107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>345</v>
+      </c>
+      <c r="B108">
+        <v>6432</v>
+      </c>
+      <c r="C108" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" t="s">
+        <v>541</v>
+      </c>
+      <c r="E108" t="s">
+        <v>275</v>
+      </c>
+      <c r="F108" t="s">
+        <v>336</v>
+      </c>
+      <c r="G108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>345</v>
+      </c>
+      <c r="B109">
+        <v>6503</v>
+      </c>
+      <c r="C109" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109" t="s">
+        <v>542</v>
+      </c>
+      <c r="E109" t="s">
+        <v>275</v>
+      </c>
+      <c r="F109" t="s">
+        <v>336</v>
+      </c>
+      <c r="G109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>355</v>
+      </c>
+      <c r="B110">
+        <v>7276</v>
+      </c>
+      <c r="C110" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" t="s">
+        <v>546</v>
+      </c>
+      <c r="E110" t="s">
+        <v>275</v>
+      </c>
+      <c r="F110" t="s">
         <v>286</v>
       </c>
-      <c r="E3">
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>355</v>
+      </c>
+      <c r="B111">
+        <v>7351</v>
+      </c>
+      <c r="C111" t="s">
+        <v>231</v>
+      </c>
+      <c r="D111" t="s">
+        <v>517</v>
+      </c>
+      <c r="E111" t="s">
+        <v>275</v>
+      </c>
+      <c r="F111" t="s">
+        <v>286</v>
+      </c>
+      <c r="G111">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>7335</v>
-      </c>
-      <c r="G3">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>356</v>
+      </c>
+      <c r="B112">
+        <v>305</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>293</v>
+      </c>
+      <c r="E112" t="s">
+        <v>294</v>
+      </c>
+      <c r="F112" t="s">
+        <v>295</v>
+      </c>
+      <c r="G112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>356</v>
+      </c>
+      <c r="B113">
+        <v>10212</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>296</v>
+      </c>
+      <c r="E113" t="s">
+        <v>275</v>
+      </c>
+      <c r="F113" t="s">
+        <v>297</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>356</v>
+      </c>
+      <c r="B114">
+        <v>4880</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>298</v>
+      </c>
+      <c r="E114" t="s">
+        <v>275</v>
+      </c>
+      <c r="F114" t="s">
+        <v>299</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>356</v>
+      </c>
+      <c r="B115">
+        <v>8804</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>300</v>
+      </c>
+      <c r="E115" t="s">
+        <v>275</v>
+      </c>
+      <c r="F115" t="s">
+        <v>292</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>358</v>
+      </c>
+      <c r="B116">
+        <v>9079</v>
+      </c>
+      <c r="C116" t="s">
+        <v>232</v>
+      </c>
+      <c r="D116" t="s">
+        <v>427</v>
+      </c>
+      <c r="E116" t="s">
+        <v>265</v>
+      </c>
+      <c r="F116" t="s">
+        <v>269</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>358</v>
+      </c>
+      <c r="B117">
+        <v>9735</v>
+      </c>
+      <c r="C117" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117" t="s">
+        <v>342</v>
+      </c>
+      <c r="E117" t="s">
+        <v>265</v>
+      </c>
+      <c r="F117" t="s">
+        <v>269</v>
+      </c>
+      <c r="G117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>389</v>
+      </c>
+      <c r="B118">
+        <v>3781</v>
+      </c>
+      <c r="C118" t="s">
+        <v>250</v>
+      </c>
+      <c r="D118" t="s">
+        <v>439</v>
+      </c>
+      <c r="E118" t="s">
+        <v>305</v>
+      </c>
+      <c r="F118" t="s">
+        <v>310</v>
+      </c>
+      <c r="G118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>389</v>
+      </c>
+      <c r="B119">
+        <v>3891</v>
+      </c>
+      <c r="C119" t="s">
+        <v>250</v>
+      </c>
+      <c r="D119" t="s">
+        <v>557</v>
+      </c>
+      <c r="E119" t="s">
+        <v>305</v>
+      </c>
+      <c r="F119" t="s">
+        <v>310</v>
+      </c>
+      <c r="G119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>395</v>
+      </c>
+      <c r="B120">
+        <v>2962</v>
+      </c>
+      <c r="C120" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" t="s">
+        <v>487</v>
+      </c>
+      <c r="E120" t="s">
+        <v>271</v>
+      </c>
+      <c r="F120" t="s">
+        <v>318</v>
+      </c>
+      <c r="G120">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>7273</v>
-      </c>
-      <c r="G4">
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>395</v>
+      </c>
+      <c r="B121">
+        <v>7986</v>
+      </c>
+      <c r="C121" t="s">
+        <v>172</v>
+      </c>
+      <c r="D121" t="s">
+        <v>488</v>
+      </c>
+      <c r="E121" t="s">
+        <v>321</v>
+      </c>
+      <c r="F121" t="s">
+        <v>347</v>
+      </c>
+      <c r="G121">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>395</v>
+      </c>
+      <c r="B122">
+        <v>10585</v>
+      </c>
+      <c r="C122" t="s">
+        <v>172</v>
+      </c>
+      <c r="D122" t="s">
+        <v>489</v>
+      </c>
+      <c r="E122" t="s">
+        <v>321</v>
+      </c>
+      <c r="F122" t="s">
+        <v>490</v>
+      </c>
+      <c r="G122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>396</v>
+      </c>
+      <c r="B123">
+        <v>8789</v>
+      </c>
+      <c r="C123" t="s">
+        <v>61</v>
+      </c>
+      <c r="D123" t="s">
+        <v>300</v>
+      </c>
+      <c r="E123" t="s">
         <v>275</v>
       </c>
-      <c r="D5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>10212</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F123" t="s">
+        <v>292</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>396</v>
+      </c>
+      <c r="B124">
+        <v>8947</v>
+      </c>
+      <c r="C124" t="s">
+        <v>61</v>
+      </c>
+      <c r="D124" t="s">
+        <v>367</v>
+      </c>
+      <c r="E124" t="s">
         <v>275</v>
       </c>
-      <c r="D6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>4880</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F124" t="s">
         <v>292</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>8804</v>
-      </c>
-      <c r="G7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8">
+      <c r="G124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>398</v>
+      </c>
+      <c r="B125">
+        <v>3902</v>
+      </c>
+      <c r="C125" t="s">
+        <v>188</v>
+      </c>
+      <c r="D125" t="s">
+        <v>504</v>
+      </c>
+      <c r="E125" t="s">
+        <v>291</v>
+      </c>
+      <c r="F125" t="s">
+        <v>310</v>
+      </c>
+      <c r="G125">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>1796</v>
-      </c>
-      <c r="G8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>973</v>
-      </c>
-      <c r="G9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>10212</v>
-      </c>
-      <c r="G10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C11" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>4880</v>
-      </c>
-      <c r="G11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>8804</v>
-      </c>
-      <c r="G12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>330</v>
-      </c>
-      <c r="C13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>9576</v>
-      </c>
-      <c r="G13">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" t="s">
-        <v>272</v>
-      </c>
-      <c r="E14">
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>398</v>
+      </c>
+      <c r="B126">
+        <v>2192</v>
+      </c>
+      <c r="C126" t="s">
+        <v>188</v>
+      </c>
+      <c r="D126" t="s">
+        <v>505</v>
+      </c>
+      <c r="E126" t="s">
+        <v>291</v>
+      </c>
+      <c r="F126" t="s">
+        <v>328</v>
+      </c>
+      <c r="G126">
         <v>7</v>
-      </c>
-      <c r="F14">
-        <v>6731</v>
-      </c>
-      <c r="G14">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>10483</v>
-      </c>
-      <c r="G15">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D16" t="s">
-        <v>283</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>4592</v>
-      </c>
-      <c r="G16">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17" t="s">
-        <v>325</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2493</v>
-      </c>
-      <c r="G17">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>363</v>
-      </c>
-      <c r="C18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>9644</v>
-      </c>
-      <c r="G18">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>8947</v>
-      </c>
-      <c r="G19">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>381</v>
-      </c>
-      <c r="C20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D20" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
-      <c r="F20">
-        <v>6755</v>
-      </c>
-      <c r="G20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>382</v>
-      </c>
-      <c r="C21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" t="s">
-        <v>377</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>10644</v>
-      </c>
-      <c r="G21">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>381</v>
-      </c>
-      <c r="C22" t="s">
-        <v>285</v>
-      </c>
-      <c r="D22" t="s">
-        <v>272</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
-      <c r="F22">
-        <v>6755</v>
-      </c>
-      <c r="G22">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>382</v>
-      </c>
-      <c r="C23" t="s">
-        <v>285</v>
-      </c>
-      <c r="D23" t="s">
-        <v>377</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>10644</v>
-      </c>
-      <c r="G23">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>387</v>
-      </c>
-      <c r="C24" t="s">
-        <v>275</v>
-      </c>
-      <c r="D24" t="s">
-        <v>297</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>10309</v>
-      </c>
-      <c r="G24">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" t="s">
-        <v>390</v>
-      </c>
-      <c r="C25" t="s">
-        <v>321</v>
-      </c>
-      <c r="D25" t="s">
-        <v>310</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
-      </c>
-      <c r="F25">
-        <v>3909</v>
-      </c>
-      <c r="G25">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>397</v>
-      </c>
-      <c r="C26" t="s">
-        <v>305</v>
-      </c>
-      <c r="D26" t="s">
-        <v>396</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>7644</v>
-      </c>
-      <c r="G26">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" t="s">
-        <v>411</v>
-      </c>
-      <c r="C27" t="s">
-        <v>282</v>
-      </c>
-      <c r="D27" t="s">
-        <v>297</v>
-      </c>
-      <c r="E27">
-        <v>7</v>
-      </c>
-      <c r="F27">
-        <v>10431</v>
-      </c>
-      <c r="G27">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" t="s">
-        <v>419</v>
-      </c>
-      <c r="C28" t="s">
-        <v>285</v>
-      </c>
-      <c r="D28" t="s">
-        <v>420</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>7370</v>
-      </c>
-      <c r="G28">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" t="s">
-        <v>422</v>
-      </c>
-      <c r="C29" t="s">
-        <v>291</v>
-      </c>
-      <c r="D29" t="s">
-        <v>279</v>
-      </c>
-      <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="F29">
-        <v>10669</v>
-      </c>
-      <c r="G29">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C30" t="s">
-        <v>282</v>
-      </c>
-      <c r="D30" t="s">
-        <v>269</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>9438</v>
-      </c>
-      <c r="G30">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" t="s">
-        <v>434</v>
-      </c>
-      <c r="C31" t="s">
-        <v>282</v>
-      </c>
-      <c r="D31" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-      <c r="F31">
-        <v>10117</v>
-      </c>
-      <c r="G31">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" t="s">
-        <v>451</v>
-      </c>
-      <c r="C32" t="s">
-        <v>305</v>
-      </c>
-      <c r="D32" t="s">
-        <v>297</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>10303</v>
-      </c>
-      <c r="G32">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" t="s">
-        <v>454</v>
-      </c>
-      <c r="C33" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" t="s">
-        <v>283</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>4276</v>
-      </c>
-      <c r="G33">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" t="s">
-        <v>456</v>
-      </c>
-      <c r="C34" t="s">
-        <v>282</v>
-      </c>
-      <c r="D34" t="s">
-        <v>371</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>7087</v>
-      </c>
-      <c r="G34">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>330</v>
-      </c>
-      <c r="C35" t="s">
-        <v>278</v>
-      </c>
-      <c r="D35" t="s">
-        <v>269</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>9576</v>
-      </c>
-      <c r="G35">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" t="s">
-        <v>464</v>
-      </c>
-      <c r="C36" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" t="s">
-        <v>310</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>3352</v>
-      </c>
-      <c r="G36">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>287</v>
-      </c>
-      <c r="C37" t="s">
-        <v>285</v>
-      </c>
-      <c r="D37" t="s">
-        <v>286</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>7335</v>
-      </c>
-      <c r="G37">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>288</v>
-      </c>
-      <c r="C38" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38" t="s">
-        <v>286</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>7273</v>
-      </c>
-      <c r="G38">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" t="s">
-        <v>272</v>
-      </c>
-      <c r="E39">
-        <v>7</v>
-      </c>
-      <c r="F39">
-        <v>6731</v>
-      </c>
-      <c r="G39">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" t="s">
-        <v>425</v>
-      </c>
-      <c r="C40" t="s">
-        <v>282</v>
-      </c>
-      <c r="D40" t="s">
-        <v>269</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40">
-        <v>9918</v>
-      </c>
-      <c r="G40">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" t="s">
-        <v>476</v>
-      </c>
-      <c r="C41" t="s">
-        <v>305</v>
-      </c>
-      <c r="D41" t="s">
-        <v>286</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>7339</v>
-      </c>
-      <c r="G41">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" t="s">
-        <v>477</v>
-      </c>
-      <c r="C42" t="s">
-        <v>265</v>
-      </c>
-      <c r="D42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42">
-        <v>7</v>
-      </c>
-      <c r="F42">
-        <v>1760</v>
-      </c>
-      <c r="G42">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" t="s">
-        <v>488</v>
-      </c>
-      <c r="C43" t="s">
-        <v>321</v>
-      </c>
-      <c r="D43" t="s">
-        <v>347</v>
-      </c>
-      <c r="E43">
-        <v>8</v>
-      </c>
-      <c r="F43">
-        <v>7986</v>
-      </c>
-      <c r="G43">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" t="s">
-        <v>489</v>
-      </c>
-      <c r="C44" t="s">
-        <v>321</v>
-      </c>
-      <c r="D44" t="s">
-        <v>490</v>
-      </c>
-      <c r="E44">
-        <v>7</v>
-      </c>
-      <c r="F44">
-        <v>10585</v>
-      </c>
-      <c r="G44">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" t="s">
-        <v>498</v>
-      </c>
-      <c r="C45" t="s">
-        <v>268</v>
-      </c>
-      <c r="D45" t="s">
-        <v>318</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45">
-        <v>2603</v>
-      </c>
-      <c r="G45">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" t="s">
-        <v>287</v>
-      </c>
-      <c r="C46" t="s">
-        <v>285</v>
-      </c>
-      <c r="D46" t="s">
-        <v>286</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>7335</v>
-      </c>
-      <c r="G46">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" t="s">
-        <v>288</v>
-      </c>
-      <c r="C47" t="s">
-        <v>289</v>
-      </c>
-      <c r="D47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>7273</v>
-      </c>
-      <c r="G47">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" t="s">
-        <v>411</v>
-      </c>
-      <c r="C48" t="s">
-        <v>282</v>
-      </c>
-      <c r="D48" t="s">
-        <v>297</v>
-      </c>
-      <c r="E48">
-        <v>7</v>
-      </c>
-      <c r="F48">
-        <v>10431</v>
-      </c>
-      <c r="G48">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>188</v>
-      </c>
-      <c r="B49" t="s">
-        <v>505</v>
-      </c>
-      <c r="C49" t="s">
-        <v>291</v>
-      </c>
-      <c r="D49" t="s">
-        <v>328</v>
-      </c>
-      <c r="E49">
-        <v>7</v>
-      </c>
-      <c r="F49">
-        <v>2192</v>
-      </c>
-      <c r="G49">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" t="s">
-        <v>427</v>
-      </c>
-      <c r="C50" t="s">
-        <v>265</v>
-      </c>
-      <c r="D50" t="s">
-        <v>269</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>9087</v>
-      </c>
-      <c r="G50">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" t="s">
-        <v>521</v>
-      </c>
-      <c r="C51" t="s">
-        <v>305</v>
-      </c>
-      <c r="D51" t="s">
-        <v>283</v>
-      </c>
-      <c r="E51">
-        <v>7</v>
-      </c>
-      <c r="F51">
-        <v>4582</v>
-      </c>
-      <c r="G51">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>214</v>
-      </c>
-      <c r="B52" t="s">
-        <v>527</v>
-      </c>
-      <c r="C52" t="s">
-        <v>275</v>
-      </c>
-      <c r="D52" t="s">
-        <v>310</v>
-      </c>
-      <c r="E52">
-        <v>7</v>
-      </c>
-      <c r="F52">
-        <v>3917</v>
-      </c>
-      <c r="G52">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>214</v>
-      </c>
-      <c r="B53" t="s">
-        <v>528</v>
-      </c>
-      <c r="C53" t="s">
-        <v>275</v>
-      </c>
-      <c r="D53" t="s">
-        <v>529</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
-      </c>
-      <c r="F53">
-        <v>10658</v>
-      </c>
-      <c r="G53">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" t="s">
-        <v>322</v>
-      </c>
-      <c r="C54" t="s">
-        <v>285</v>
-      </c>
-      <c r="D54" t="s">
-        <v>323</v>
-      </c>
-      <c r="E54">
-        <v>4</v>
-      </c>
-      <c r="F54">
-        <v>973</v>
-      </c>
-      <c r="G54">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>219</v>
-      </c>
-      <c r="B55" t="s">
-        <v>533</v>
-      </c>
-      <c r="C55" t="s">
-        <v>265</v>
-      </c>
-      <c r="D55" t="s">
-        <v>269</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55">
-        <v>9317</v>
-      </c>
-      <c r="G55">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" t="s">
-        <v>275</v>
-      </c>
-      <c r="D56" t="s">
-        <v>297</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>10212</v>
-      </c>
-      <c r="G56">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>298</v>
-      </c>
-      <c r="C57" t="s">
-        <v>275</v>
-      </c>
-      <c r="D57" t="s">
-        <v>299</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>4880</v>
-      </c>
-      <c r="G57">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>300</v>
-      </c>
-      <c r="C58" t="s">
-        <v>275</v>
-      </c>
-      <c r="D58" t="s">
-        <v>292</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>8804</v>
-      </c>
-      <c r="G58">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" t="s">
-        <v>538</v>
-      </c>
-      <c r="C59" t="s">
-        <v>316</v>
-      </c>
-      <c r="D59" t="s">
-        <v>306</v>
-      </c>
-      <c r="E59">
-        <v>7</v>
-      </c>
-      <c r="F59">
-        <v>1444</v>
-      </c>
-      <c r="G59">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" t="s">
-        <v>308</v>
-      </c>
-      <c r="C60" t="s">
-        <v>282</v>
-      </c>
-      <c r="D60" t="s">
-        <v>266</v>
-      </c>
-      <c r="E60">
-        <v>7</v>
-      </c>
-      <c r="F60">
-        <v>1796</v>
-      </c>
-      <c r="G60">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>226</v>
-      </c>
-      <c r="B61" t="s">
-        <v>542</v>
-      </c>
-      <c r="C61" t="s">
-        <v>275</v>
-      </c>
-      <c r="D61" t="s">
-        <v>336</v>
-      </c>
-      <c r="E61">
-        <v>7</v>
-      </c>
-      <c r="F61">
-        <v>6503</v>
-      </c>
-      <c r="G61">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>231</v>
-      </c>
-      <c r="B62" t="s">
-        <v>517</v>
-      </c>
-      <c r="C62" t="s">
-        <v>275</v>
-      </c>
-      <c r="D62" t="s">
-        <v>286</v>
-      </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62">
-        <v>7351</v>
-      </c>
-      <c r="G62">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>296</v>
-      </c>
-      <c r="C63" t="s">
-        <v>275</v>
-      </c>
-      <c r="D63" t="s">
-        <v>297</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>10212</v>
-      </c>
-      <c r="G63">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>298</v>
-      </c>
-      <c r="C64" t="s">
-        <v>275</v>
-      </c>
-      <c r="D64" t="s">
-        <v>299</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64">
-        <v>4880</v>
-      </c>
-      <c r="G64">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>300</v>
-      </c>
-      <c r="C65" t="s">
-        <v>275</v>
-      </c>
-      <c r="D65" t="s">
-        <v>292</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>8804</v>
-      </c>
-      <c r="G65">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>232</v>
-      </c>
-      <c r="B66" t="s">
-        <v>342</v>
-      </c>
-      <c r="C66" t="s">
-        <v>265</v>
-      </c>
-      <c r="D66" t="s">
-        <v>269</v>
-      </c>
-      <c r="E66">
-        <v>5</v>
-      </c>
-      <c r="F66">
-        <v>9735</v>
-      </c>
-      <c r="G66">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>250</v>
-      </c>
-      <c r="B67" t="s">
-        <v>557</v>
-      </c>
-      <c r="C67" t="s">
-        <v>305</v>
-      </c>
-      <c r="D67" t="s">
-        <v>310</v>
-      </c>
-      <c r="E67">
-        <v>7</v>
-      </c>
-      <c r="F67">
-        <v>3891</v>
-      </c>
-      <c r="G67">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>172</v>
-      </c>
-      <c r="B68" t="s">
-        <v>488</v>
-      </c>
-      <c r="C68" t="s">
-        <v>321</v>
-      </c>
-      <c r="D68" t="s">
-        <v>347</v>
-      </c>
-      <c r="E68">
-        <v>8</v>
-      </c>
-      <c r="F68">
-        <v>7986</v>
-      </c>
-      <c r="G68">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>172</v>
-      </c>
-      <c r="B69" t="s">
-        <v>489</v>
-      </c>
-      <c r="C69" t="s">
-        <v>321</v>
-      </c>
-      <c r="D69" t="s">
-        <v>490</v>
-      </c>
-      <c r="E69">
-        <v>7</v>
-      </c>
-      <c r="F69">
-        <v>10585</v>
-      </c>
-      <c r="G69">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" t="s">
-        <v>367</v>
-      </c>
-      <c r="C70" t="s">
-        <v>275</v>
-      </c>
-      <c r="D70" t="s">
-        <v>292</v>
-      </c>
-      <c r="E70">
-        <v>5</v>
-      </c>
-      <c r="F70">
-        <v>8947</v>
-      </c>
-      <c r="G70">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>188</v>
-      </c>
-      <c r="B71" t="s">
-        <v>505</v>
-      </c>
-      <c r="C71" t="s">
-        <v>291</v>
-      </c>
-      <c r="D71" t="s">
-        <v>328</v>
-      </c>
-      <c r="E71">
-        <v>7</v>
-      </c>
-      <c r="F71">
-        <v>2192</v>
-      </c>
-      <c r="G71">
-        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -24195,7 +25450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD33D62-F9C1-5149-81F4-E849951D161E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21DC3BE-78A0-BB4D-8E27-A95760D12E14}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
